--- a/meta/4-1-1.xlsx
+++ b/meta/4-1-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЦУР_метаданные\04112019\Данные_Сайт НСК КР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867E65A5-FAAB-41CE-A2A0-5DD3E2CAA210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F61C9FB-3FA2-4339-8003-F3D3B2893E1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="180" windowWidth="11265" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,13 +292,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -370,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -415,44 +408,40 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,43 +725,43 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.41796875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -780,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -788,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -796,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -804,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -812,13 +801,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -826,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -834,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -842,13 +831,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -856,7 +845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -864,13 +853,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -878,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -886,7 +875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -894,13 +883,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -908,7 +897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -916,25 +905,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>27</v>
@@ -948,232 +937,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.15625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="168.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="252" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="214.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:2" s="8" customFormat="1" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="25"/>
     </row>
-    <row r="19" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" ht="76.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="15"/>
-      <c r="K65" s="8"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="15"/>
+      <c r="K63" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{5C4FD844-7517-4C8B-B7E9-0A8ADA9FAD26}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{C755CE43-D3AD-458C-88DA-A404E1451AB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/meta/4-1-1.xlsx
+++ b/meta/4-1-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBA6B0A-01CD-48A9-84BA-9A9FE44C70BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,32 +110,7 @@
     <t>4.1. К 2030 году обеспечить, чтобы все девочки и мальчики завершали получение бесплатного, равноправного и качественного начального и среднего образования, позволяющего добиться востребованных и эффективных результатов обучения</t>
   </si>
   <si>
-    <t>4.1.1 Доля детей и молодежи: 
-a) во 2-м/ 3-м классе, 
-b) выпускников начальной школы 
-c) выпускников средней школы, достигших, по меньшей мере, минимального уровня владения навыками
-i) грамотности 
-ii) навыков счета, в разбивке по полу</t>
-  </si>
-  <si>
     <t xml:space="preserve">1)Национальный статистический комитет Кыргызской Республики (Управление статистики устойчивого развития и окружающей среды) 2)Министерство образования и науки Кыргызской Республики, (Национальный центр оценки качества образования и информационных технологий) </t>
-  </si>
-  <si>
-    <t>1) Керималиева Назира Керималиевна 
-2) Шамшидинова Бактыгуль Сабыржановна</t>
-  </si>
-  <si>
-    <t>1) Sdg_nsc@stat.kg 
-2) bakula68@mail.ru</t>
-  </si>
-  <si>
-    <t>1) +996312 32 46 91
-2) +996312622962</t>
-  </si>
-  <si>
-    <t>1) www.stat.kg
-2) http://ntc.kg/;  
-http://testing.kg</t>
   </si>
   <si>
     <t>1) Процент детей и молодежи в начальном образовании, в конце начального образования и в конце среднего образования, достигающих, по крайней мере, минимального уровня квалификации в (а) чтении и (б) математике.
@@ -192,17 +166,45 @@
 United Nations Educational, Scientific and Cultural Organization. UNESCO Institute for statistics 2018.
 Национальное оценивание образовательных достижений учащихся (НООДУ).  Отчет об основных результатах исследования. Бишкек (2008 г., 2010 г., 2014 г., 2018 г.) Сайт: http://testing.kg</t>
   </si>
+  <si>
+    <t>4.1.1 Доля детей и молодежи, приходящаяся на a) учащихся 2 и 3 классов; b) выпускников начальной школы; и c) выпускников неполной средней школы, которые достигли по меньшей мере минимального уровня владения навыками i) чтения и i) математики, в разбивке по полу</t>
+  </si>
+  <si>
+    <t>1) Калымбетова Ы.И.
+2) Шамшидинова Бактыгуль Сабыржановна</t>
+  </si>
+  <si>
+    <t>1) yryskan.kalymbetova@gmail.com
+2) bakula68@mail.ru</t>
+  </si>
+  <si>
+    <t>1) +996312 32 46 55
+2) +996312622962</t>
+  </si>
+  <si>
+    <t>1) www.stat.gov.kg
+2) http://ntc.kg/;  
+http://testing.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,32 +271,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{477C8A7F-B633-44F5-BED8-7242FDF70AAE}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B7402D-2F6B-408E-A63F-DD9752242F6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,12 +613,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,39 +632,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -680,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -724,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +758,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
